--- a/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
+++ b/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\RailWorks\Source\RailionLudmilla-Consists\Quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CCDDC2-F11E-4CEB-B84F-067DB1F96BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4903022-A1C5-4259-9E61-EF0C0DB55F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Voorstel Universeel WIP1" sheetId="2" r:id="rId1"/>
-    <sheet name="Voorstel Universeel testje 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Voorstel ZWNL" sheetId="1" r:id="rId3"/>
+    <sheet name="Voorstel Universeel Testje" sheetId="7" r:id="rId1"/>
+    <sheet name="Voorstel Universeel WIP1" sheetId="2" r:id="rId2"/>
+    <sheet name="Voorstel goederen" sheetId="6" r:id="rId3"/>
+    <sheet name="Voorstel ZWNL" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -32,7 +44,7 @@
     <author>Tom</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{84D77408-50C8-4B8F-963B-8FF8391F8DEF}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{59C84947-E937-4CB4-A423-D6781CC6776B}">
       <text>
         <r>
           <rPr>
@@ -52,7 +64,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Geel: indien nodig gebruiken in Custom X</t>
+Geel: indien nodig toewijzen aan Custom X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{5EC877C8-8917-46DD-A746-9F38061D060C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Betuweroute zit niet echt in train sim, maar de oude route via Arnhem wel!</t>
         </r>
       </text>
     </comment>
@@ -61,6 +97,170 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{B3C20587-93C3-4850-9CEF-026D88621863}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Betuweroute zit niet echt in train sim, maar de oude route via Arnhem wel!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{C0A47AFD-4D12-4FCB-8282-2E4D937D0654}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+genormaliseerd naar maximum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{9C50D09B-E0AD-4792-AA5C-AE6F07191B24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Betuweroute zit niet echt in train sim, maar de oude route via Arnhem wel!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{A5B89C17-B7EE-4C12-9CAB-94CFB25704A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Samengevoegd met Vl-Rtd, omdat Br/Vl niet in route zit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{3B59DD6C-1E08-4DCC-BC13-4392A005E9CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+geen geschikte route</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{23C21FC7-5126-435F-9431-3F4F86CC7741}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Vanaf hieronder geen consists meer vrij</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tom</author>
@@ -119,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="137">
   <si>
     <t>P Regional</t>
   </si>
@@ -596,29 +796,116 @@
     <t>Berlijn</t>
   </si>
   <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PIC</t>
-  </si>
-  <si>
-    <t>Pint</t>
+    <t>DDM-1</t>
+  </si>
+  <si>
+    <t>Mat46</t>
+  </si>
+  <si>
+    <t>Rtd-Zv</t>
+  </si>
+  <si>
+    <t>Rtd-Br</t>
+  </si>
+  <si>
+    <t>Rtd-Rsd</t>
+  </si>
+  <si>
+    <t>Rsd-Odz</t>
+  </si>
+  <si>
+    <t>Rtd-Odz</t>
+  </si>
+  <si>
+    <t>Vl-Rsd</t>
+  </si>
+  <si>
+    <t>Vl-Rtd</t>
+  </si>
+  <si>
+    <t>Zlw-Rtd</t>
+  </si>
+  <si>
+    <t>Std-Vl</t>
+  </si>
+  <si>
+    <t># Goederentreinen per HB 2020 (prorail jaarrapport)</t>
+  </si>
+  <si>
+    <t>9 typen consists beschikbaar. Voorstel: indelen voor belangrijkste verbindingen.</t>
+  </si>
+  <si>
+    <t>Zv-Asd</t>
+  </si>
+  <si>
+    <t>Rtd-Bvw</t>
+  </si>
+  <si>
+    <t>Tb-Odz</t>
+  </si>
+  <si>
+    <t>Zv-Rsd</t>
+  </si>
+  <si>
+    <t>Rtd-Sloe</t>
+  </si>
+  <si>
+    <t>Sloe-Vl</t>
+  </si>
+  <si>
+    <t>P Int</t>
+  </si>
+  <si>
+    <t>P IC</t>
+  </si>
+  <si>
+    <t>P F</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>P S</t>
+  </si>
+  <si>
+    <t>P C</t>
+  </si>
+  <si>
+    <t>P R</t>
+  </si>
+  <si>
+    <t>F Cl</t>
+  </si>
+  <si>
+    <t>F G</t>
+  </si>
+  <si>
+    <t>F O</t>
+  </si>
+  <si>
+    <t>F W</t>
+  </si>
+  <si>
+    <t>F P</t>
+  </si>
+  <si>
+    <t>F L</t>
+  </si>
+  <si>
+    <t>F N</t>
+  </si>
+  <si>
+    <t>F Cr</t>
+  </si>
+  <si>
+    <t>F S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,8 +940,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +964,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -692,11 +998,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -976,14 +1289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B24BDAB-C9D9-49E0-AD26-048D5EA7F94B}">
-  <dimension ref="A1:AY45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49D437-B26F-4321-9F98-78EC500F5F1D}">
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28:AX36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1146,7 +1459,7 @@
       <c r="AY1" s="4"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1253,7 +1566,9 @@
       <c r="AY2" s="4"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
+      <c r="A3" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1330,6 +1645,9 @@
       <c r="AY3" s="4"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -1422,6 +1740,9 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
@@ -1547,19 +1868,22 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="K6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>83</v>
       </c>
       <c r="O6" t="s">
@@ -1672,13 +1996,16 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
       <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="11" t="s">
         <v>79</v>
       </c>
       <c r="AF7" t="s">
@@ -1740,6 +2067,9 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -1763,6 +2093,9 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
@@ -1792,6 +2125,9 @@
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -1842,6 +2178,9 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -1985,13 +2324,16 @@
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="11" t="s">
         <v>84</v>
       </c>
       <c r="I13" t="s">
@@ -2071,528 +2413,730 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="Q14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="S14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="U14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="W14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="Y14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="Z14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AA14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AB14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AC14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AD14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AE14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AF14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AG14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AH14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AI14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AJ14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AL14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AN14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" t="s">
+        <v>77</v>
+      </c>
+      <c r="X15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N28" t="s">
         <v>76</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O28" t="s">
         <v>76</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P28" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q28" t="s">
         <v>76</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R28" t="s">
         <v>76</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S28" t="s">
         <v>76</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T28" t="s">
         <v>76</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U28" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V28" t="s">
         <v>76</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W28" t="s">
         <v>76</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X28" t="s">
         <v>76</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y28" t="s">
         <v>76</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z28" t="s">
         <v>76</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA28" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB28" t="s">
         <v>76</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S29" t="s">
         <v>78</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T29" t="s">
         <v>78</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U29" t="s">
         <v>78</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V29" t="s">
         <v>78</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W29" t="s">
         <v>78</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X29" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y29" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z29" t="s">
         <v>78</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA29" t="s">
         <v>78</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB29" t="s">
         <v>78</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC29" t="s">
         <v>78</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD29" t="s">
         <v>78</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE29" t="s">
         <v>78</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF29" t="s">
         <v>78</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG29" t="s">
         <v>78</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AH29" t="s">
         <v>78</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AI29" t="s">
         <v>78</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AJ29" t="s">
         <v>78</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AK29" t="s">
         <v>78</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AL29" t="s">
         <v>78</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM29" t="s">
         <v>78</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AN29" t="s">
         <v>78</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO29" t="s">
         <v>78</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AP29" t="s">
         <v>78</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AQ29" t="s">
         <v>78</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AR29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC31" t="s">
         <v>72</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD31" t="s">
         <v>72</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AE31" t="s">
         <v>72</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF31" t="s">
         <v>72</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG31" t="s">
         <v>72</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AH31" t="s">
         <v>72</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AI31" t="s">
         <v>72</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ31" t="s">
         <v>72</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AK31" t="s">
         <v>72</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AL31" t="s">
         <v>72</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AM31" t="s">
         <v>72</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AN31" t="s">
         <v>72</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AO31" t="s">
         <v>72</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AP31" t="s">
         <v>72</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AQ31" t="s">
         <v>72</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AR31" t="s">
         <v>72</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AS31" t="s">
         <v>72</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AT31" t="s">
         <v>72</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AU31" t="s">
         <v>72</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AV31" t="s">
         <v>72</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AW31" t="s">
         <v>72</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AX31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-      <c r="AL24" t="s">
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL35" t="s">
         <v>80</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AM35" t="s">
         <v>80</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AN35" t="s">
         <v>80</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AO35" t="s">
         <v>80</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AP35" t="s">
         <v>80</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AQ35" t="s">
         <v>80</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AR35" t="s">
         <v>80</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AS35" t="s">
         <v>80</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AT35" t="s">
         <v>80</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AU35" t="s">
         <v>80</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AV35" t="s">
         <v>80</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AW35" t="s">
         <v>80</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AX35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B25" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA58F94C-1148-4DAB-A7F7-F5882776A85C}">
-  <dimension ref="A1:AY45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B24BDAB-C9D9-49E0-AD26-048D5EA7F94B}">
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2755,7 +3299,7 @@
       <c r="AY1" s="4"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2862,9 +3406,7 @@
       <c r="AY2" s="4"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
@@ -2890,16 +3432,16 @@
       <c r="J3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
       <c r="O3" s="4"/>
@@ -2941,9 +3483,6 @@
       <c r="AY3" s="4"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -2971,16 +3510,16 @@
       <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
       <c r="O4" t="s">
@@ -3028,17 +3567,14 @@
       <c r="AC4" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AD4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
@@ -3066,16 +3602,16 @@
       <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
       <c r="O5" t="s">
@@ -3123,10 +3659,10 @@
       <c r="AC5" t="s">
         <v>70</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AD5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" t="s">
         <v>70</v>
       </c>
       <c r="AF5" t="s">
@@ -3164,22 +3700,19 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="5" t="s">
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
       <c r="O6" t="s">
@@ -3227,10 +3760,10 @@
       <c r="AC6" t="s">
         <v>83</v>
       </c>
-      <c r="AD6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AD6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE6" t="s">
         <v>83</v>
       </c>
       <c r="AF6" t="s">
@@ -3292,16 +3825,13 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
       <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AD7" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" t="s">
         <v>79</v>
       </c>
       <c r="AF7" t="s">
@@ -3363,9 +3893,6 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -3375,23 +3902,20 @@
       <c r="D9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
@@ -3401,29 +3925,26 @@
       <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -3433,22 +3954,22 @@
       <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" t="s">
         <v>74</v>
       </c>
       <c r="K11" t="s">
@@ -3460,42 +3981,39 @@
       <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" t="s">
         <v>74</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
       <c r="B12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
         <v>75</v>
       </c>
       <c r="K12" t="s">
@@ -3507,16 +4025,16 @@
       <c r="M12" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
         <v>75</v>
       </c>
       <c r="R12" t="s">
@@ -3620,22 +4138,19 @@
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" t="s">
         <v>84</v>
       </c>
       <c r="K13" t="s">
@@ -3644,16 +4159,16 @@
       <c r="M13" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" t="s">
         <v>84</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" t="s">
         <v>84</v>
       </c>
       <c r="R13" t="s">
@@ -3709,516 +4224,683 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" t="s">
+        <v>77</v>
+      </c>
+      <c r="X15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" t="s">
-        <v>77</v>
-      </c>
-      <c r="V14" t="s">
-        <v>77</v>
-      </c>
-      <c r="W14" t="s">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+      <c r="N18" t="s">
         <v>76</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O18" t="s">
         <v>76</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P18" t="s">
         <v>76</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q18" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R18" t="s">
         <v>76</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S18" t="s">
         <v>76</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T18" t="s">
         <v>76</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U18" t="s">
         <v>76</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V18" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W18" t="s">
         <v>76</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X18" t="s">
         <v>76</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y18" t="s">
         <v>76</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z18" t="s">
         <v>76</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA18" t="s">
         <v>76</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB18" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC18" t="s">
         <v>76</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="S18" t="s">
-        <v>78</v>
-      </c>
-      <c r="T18" t="s">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s">
-        <v>78</v>
-      </c>
-      <c r="X18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:50" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>110</v>
+      </c>
+      <c r="S19" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" t="s">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s">
+        <v>78</v>
       </c>
       <c r="W19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AO19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AP19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AQ19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AR19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:50" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="W20" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" t="s">
         <v>72</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD21" t="s">
         <v>72</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE21" t="s">
         <v>72</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF21" t="s">
         <v>72</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG21" t="s">
         <v>72</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH21" t="s">
         <v>72</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI21" t="s">
         <v>72</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ21" t="s">
         <v>72</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK21" t="s">
         <v>72</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL21" t="s">
         <v>72</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM21" t="s">
         <v>72</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN21" t="s">
         <v>72</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO21" t="s">
         <v>72</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP21" t="s">
         <v>72</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ21" t="s">
         <v>72</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR21" t="s">
         <v>72</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS21" t="s">
         <v>72</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT21" t="s">
         <v>72</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU21" t="s">
         <v>72</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AV21" t="s">
         <v>72</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW21" t="s">
         <v>72</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX21" t="s">
         <v>72</v>
       </c>
-      <c r="AX20" t="s">
-        <v>72</v>
+    </row>
+    <row r="22" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:50" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL25" t="s">
         <v>80</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AM25" t="s">
         <v>80</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AN25" t="s">
         <v>80</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AO25" t="s">
         <v>80</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AP25" t="s">
         <v>80</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AQ25" t="s">
         <v>80</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AR25" t="s">
         <v>80</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AS25" t="s">
         <v>80</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AT25" t="s">
         <v>80</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AU25" t="s">
         <v>80</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AV25" t="s">
         <v>80</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AW25" t="s">
         <v>80</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AX25" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B25" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:50" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C28:D36">
+    <sortCondition descending="1" ref="C28:C36"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4226,6 +4908,215 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28090AE-794C-410C-AA66-F71F06C1AB80}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="9">
+        <v>9300</v>
+      </c>
+      <c r="B4" s="10">
+        <f>A4/9300</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4700</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B18" si="0">A5/9300</f>
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1550</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>1350</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14516129032258066</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1300</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1200</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1100</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11827956989247312</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1100</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11827956989247312</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10752688172043011</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>800</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6021505376344093E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>550</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9139784946236562E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
+        <v>450</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>400</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>400</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>400</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B18">
+    <sortCondition descending="1" ref="A13:A18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>

--- a/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
+++ b/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\RailWorks\Source\RailionLudmilla-Consists\Quickdrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\RailWorks\Source\RailionLudmilla-Consists\Quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4903022-A1C5-4259-9E61-EF0C0DB55F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DD9BB-0F11-4DC2-8608-6A0CAC35243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voorstel Universeel Testje" sheetId="7" r:id="rId1"/>
@@ -65,6 +65,30 @@
           </rPr>
           <t xml:space="preserve">
 Geel: indien nodig toewijzen aan Custom X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{A92C6D3D-A459-4D2D-8346-5976CFFCDDF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Groen: ingevoerd en compleet</t>
         </r>
       </text>
     </comment>
@@ -905,7 +929,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,8 +977,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +1010,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -986,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1007,7 +1050,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1293,10 +1339,10 @@
   <dimension ref="A1:AY46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28:AX36"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1460,7 +1506,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1569,7 +1615,7 @@
       <c r="A3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">

--- a/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
+++ b/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\RailWorks\Source\RailionLudmilla-Consists\Quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DD9BB-0F11-4DC2-8608-6A0CAC35243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D61158-573F-4E7F-BFB0-034312C66869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15248" windowHeight="11648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voorstel Universeel Testje" sheetId="7" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1056,6 +1056,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1342,7 +1343,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1691,10 +1692,10 @@
       <c r="AY3" s="4"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">

--- a/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
+++ b/RailWorks/Source/RailionLudmilla-Consists/Quickdrive/overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\RailWorks\Source\RailionLudmilla-Consists\Quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D61158-573F-4E7F-BFB0-034312C66869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEABE017-E133-4F5D-982A-D54B85CAB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="15248" windowHeight="11648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,7 +1343,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1787,10 +1787,10 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
